--- a/01-autodock-4_2/results/ad-results.xlsx
+++ b/01-autodock-4_2/results/ad-results.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCBBC44-C9E2-43AE-8B53-0B7223501E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conformation" sheetId="4" r:id="rId1"/>
-    <sheet name="Binding energy" sheetId="1" r:id="rId2"/>
-    <sheet name="Inhibition constant" sheetId="2" r:id="rId3"/>
-    <sheet name="Intermol energy" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Binding energy" sheetId="1" r:id="rId3"/>
+    <sheet name="Inhibition constant" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Intermol energy" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="29">
   <si>
     <t>COMPOUNDS</t>
   </si>
@@ -125,8 +128,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +167,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,9 +280,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,7 +320,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1356,7 +1393,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2229,7 +2266,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4929,7 +4966,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4964,7 +5007,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4999,7 +5048,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5279,11 +5334,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:DD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="CS1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CU9" sqref="CU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5331,7 +5386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:108" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -6228,7 +6283,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="5" spans="2:108" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:108" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -7125,7 +7180,7 @@
         <v>-6.92</v>
       </c>
     </row>
-    <row r="8" spans="2:108" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:108" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -8029,11 +8084,333 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7740E8EE-2F10-482F-A8EE-0BB76E344127}">
+  <dimension ref="C2:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="6" spans="3:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="24"/>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>987.74</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-7.98</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-7.61</v>
+      </c>
+      <c r="I7" s="5">
+        <v>-0.36</v>
+      </c>
+      <c r="J7" s="5">
+        <v>-5.14</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>915.1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-7.43</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-6.98</v>
+      </c>
+      <c r="I8" s="5">
+        <v>-0.45</v>
+      </c>
+      <c r="J8" s="5">
+        <v>-4.6399999999999997</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-3.86</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-5.35</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-4.67</v>
+      </c>
+      <c r="I9" s="5">
+        <v>-0.69</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-0.98</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-4.24</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>775.3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-8.1199999999999992</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-7.29</v>
+      </c>
+      <c r="I10" s="5">
+        <v>-0.83</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-5.97</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>851.23</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-8.07</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-7.34</v>
+      </c>
+      <c r="I11" s="5">
+        <v>-0.72</v>
+      </c>
+      <c r="J11" s="5">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="F12" s="3">
+        <v>919</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-5.93</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-5.48</v>
+      </c>
+      <c r="I12" s="25">
+        <v>-0.45</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-2.66</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-3.63</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-0.12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-7.51</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-7.02</v>
+      </c>
+      <c r="I13" s="5">
+        <v>-0.49</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-2.97</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-6.64</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-7.74</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-7.23</v>
+      </c>
+      <c r="I14" s="5">
+        <v>-0.51</v>
+      </c>
+      <c r="J14" s="5">
+        <v>-8.36</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-3.79</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-0.13</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.66</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-7.67</v>
+      </c>
+      <c r="H15" s="5">
+        <v>-7.49</v>
+      </c>
+      <c r="I15" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-6.49</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8057,58 +8434,58 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="9">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="19">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="19">
         <v>4</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="20">
         <v>5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="19">
         <v>6</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="19">
         <v>7</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="21">
         <v>8</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="19">
         <v>9</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="9">
@@ -8143,7 +8520,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3">
@@ -8178,7 +8555,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3">
@@ -8213,7 +8590,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3">
@@ -8248,7 +8625,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3">
@@ -8283,7 +8660,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3">
@@ -8318,7 +8695,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3">
@@ -8353,7 +8730,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="3">
@@ -8388,7 +8765,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="3">
@@ -8433,12 +8810,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="81" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8462,58 +8839,58 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="9">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="19">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="19">
         <v>4</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="21">
         <v>5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="19">
         <v>6</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="19">
         <v>7</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="21">
         <v>8</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="19">
         <v>9</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="9">
@@ -8548,7 +8925,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3">
@@ -8583,7 +8960,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3">
@@ -8618,7 +8995,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3">
@@ -8653,7 +9030,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3">
@@ -8688,7 +9065,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3">
@@ -8723,7 +9100,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3">
@@ -8758,7 +9135,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="3">
@@ -8793,7 +9170,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="3">
@@ -8837,12 +9214,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A2AD2E-AA3A-45AB-AC20-62489C4A4DB6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="C3" sqref="C3:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8866,58 +9255,58 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="9">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="19">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="19">
         <v>4</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="21">
         <v>5</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="19">
         <v>6</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="19">
         <v>7</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="21">
         <v>8</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="19">
         <v>9</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="9">
@@ -8952,7 +9341,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3">
@@ -8987,7 +9376,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="3">
@@ -9022,7 +9411,7 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3">
@@ -9057,7 +9446,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3">
@@ -9092,7 +9481,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3">
@@ -9127,7 +9516,7 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3">
@@ -9162,7 +9551,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="3">
@@ -9197,7 +9586,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="3">
